--- a/modules/cms/src/main/java/com/jeesite/modules/cms/db/InitCmsData.xlsx
+++ b/modules/cms/src/main/java/com/jeesite/modules/cms/db/InitCmsData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797610A0-BD69-4AC1-80FC-3EEC20F6371D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6733BB0-278B-40E4-A7E6-7C358A07E047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="2604" windowWidth="22260" windowHeight="9468" tabRatio="740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4536" yWindow="3336" windowWidth="25476" windowHeight="11088" tabRatio="740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="19" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="224">
   <si>
     <t>moduleCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -816,10 +816,6 @@
   </si>
   <si>
     <t>com.jeesite.modules.cms.web.ArticleController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1284,7 +1280,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1326,9 +1322,7 @@
       <c r="D2" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/modules/cms/src/main/java/com/jeesite/modules/cms/db/InitCmsData.xlsx
+++ b/modules/cms/src/main/java/com/jeesite/modules/cms/db/InitCmsData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6733BB0-278B-40E4-A7E6-7C358A07E047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B998F1-F921-4EDF-A6DB-B7EC17DEC8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4536" yWindow="3336" windowWidth="25476" windowHeight="11088" tabRatio="740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="19" r:id="rId1"/>
@@ -96,24 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>menuName</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Orig</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>treeSort</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,10 +174,6 @@
   </si>
   <si>
     <t>dictCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictLabelOrig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -816,6 +794,14 @@
   </si>
   <si>
     <t>com.jeesite.modules.cms.web.ArticleController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuNameRaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictLabelRaw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1278,7 +1264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EF41DA-9169-4D22-81BB-190C881AC5D9}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
@@ -1320,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -1338,7 +1324,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C12" sqref="C12"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1374,218 +1360,218 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="N5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1616,101 +1602,101 @@
   <sheetData>
     <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1724,10 +1710,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B73B71C-F73B-4EA6-8C78-184FAF304EC6}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1747,843 +1733,843 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2620,101 +2606,101 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2760,178 +2746,178 @@
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="R1" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>173</v>
-      </c>
       <c r="T1" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2975,502 +2961,502 @@
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="I2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="T2" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="J3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="N3" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="T4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="T5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="J6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="N6" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="R7" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="N8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="T9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="T10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="R11" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="J12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="N12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="J13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="N13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="J14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="N14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="J15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="N15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="J16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="N16" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3501,136 +3487,136 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/modules/cms/src/main/java/com/jeesite/modules/cms/db/InitCmsData.xlsx
+++ b/modules/cms/src/main/java/com/jeesite/modules/cms/db/InitCmsData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B998F1-F921-4EDF-A6DB-B7EC17DEC8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7006A9F4-B8DB-4361-BD68-15109E1F73C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="3324" windowWidth="22824" windowHeight="9384" tabRatio="740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="19" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="227">
   <si>
     <t>moduleCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -802,6 +802,18 @@
   </si>
   <si>
     <t>dictLabelRaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFRAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1319,12 +1331,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A03BAF9-7701-41BC-A6D1-A9BC6AFF0337}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C12" sqref="C12"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1338,15 +1350,15 @@
     <col min="7" max="7" width="5.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" style="6" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="24" style="3" customWidth="1"/>
-    <col min="13" max="13" width="6.21875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="4.88671875" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="10" max="12" width="7.21875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="38.109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="24" style="3" customWidth="1"/>
+    <col min="15" max="15" width="6.21875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1378,19 +1390,25 @@
         <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -1415,14 +1433,14 @@
       <c r="H2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>45</v>
       </c>
@@ -1450,17 +1468,20 @@
       <c r="I3" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
@@ -1488,17 +1509,20 @@
       <c r="I4" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>45</v>
       </c>
@@ -1526,17 +1550,20 @@
       <c r="I5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
@@ -1564,13 +1591,16 @@
       <c r="I6" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1710,7 +1740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B73B71C-F73B-4EA6-8C78-184FAF304EC6}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>

--- a/modules/cms/src/main/java/com/jeesite/modules/cms/db/InitCmsData.xlsx
+++ b/modules/cms/src/main/java/com/jeesite/modules/cms/db/InitCmsData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7006A9F4-B8DB-4361-BD68-15109E1F73C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4400FFC-1621-4264-995D-A6C1030E84FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="3324" windowWidth="22824" windowHeight="9384" tabRatio="740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3276" yWindow="3672" windowWidth="22836" windowHeight="10836" tabRatio="740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="19" r:id="rId1"/>
@@ -536,10 +536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JeeSite 隶属于济南卓源软件有限公司，是一个 Java EE 企业级快速开发平台， 基于经典技术组合（Spring Boot、Apache Shiro、MyBatis、Beetl、Bootstrap）在线代码生成工具， 支持 Spring Cloud 架构，分布式，微服务，微内核，信息化领域的专家。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -548,10 +544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;!--HTML--&gt;&lt;p&gt;Copyright © 2020 演示站 - Powered By JeeSite 4.2&lt;/p&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -814,6 +806,14 @@
   </si>
   <si>
     <t>IFRAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!--HTML--&gt;&lt;p&gt;Copyright © 2020 演示站 - Powered By JeeSite 5.1&lt;/p&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JeeSite 快速开发平台，不仅仅是一个后台开发框架，它是一个企业级快速开发解决方案，后端基于经典组合 Spring Boot、Shiro、MyBatis，前端采用 Beetl、Bootstrap、AdminLTE 经典开发模式，或者分离版 Vue3、Vite、Ant Design Vue、TypeScript、Vben Admin 最先进技术栈。提供在线代码生成功能，支持 Spring Cloud 架构，分布式，微服务，微内核，信息化领域的专家。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1318,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -1333,7 +1333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A03BAF9-7701-41BC-A6D1-A9BC6AFF0337}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C12" sqref="C12"/>
       <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
@@ -1372,7 +1372,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -1390,10 +1390,10 @@
         <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>17</v>
@@ -1466,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>55</v>
@@ -1507,10 +1507,10 @@
         <v>23</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>59</v>
@@ -1551,7 +1551,7 @@
         <v>50</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>57</v>
@@ -1589,10 +1589,10 @@
         <v>23</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>58</v>
@@ -1772,7 +1772,7 @@
         <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>35</v>
@@ -2613,10 +2613,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F107C8B-AEA7-49A0-8913-A9D6307CC5B0}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2628,7 +2628,7 @@
     <col min="5" max="5" width="8.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="13.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="29.44140625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -2636,13 +2636,13 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>129</v>
@@ -2666,13 +2666,13 @@
         <v>134</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>136</v>
       </c>
@@ -2686,16 +2686,16 @@
         <v>138</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>139</v>
@@ -2712,13 +2712,13 @@
         <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>45</v>
@@ -2776,7 +2776,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -2785,22 +2785,22 @@
         <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>132</v>
@@ -2809,28 +2809,28 @@
         <v>36</v>
       </c>
       <c r="L1" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>169</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>171</v>
       </c>
       <c r="T1" s="13" t="s">
         <v>135</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>40</v>
@@ -2847,7 +2847,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>136</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>40</v>
@@ -2885,7 +2885,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>136</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>40</v>
@@ -2923,7 +2923,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>136</v>
@@ -2991,25 +2991,25 @@
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>132</v>
@@ -3018,34 +3018,34 @@
         <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>135</v>
@@ -3053,22 +3053,22 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>42</v>
@@ -3077,7 +3077,7 @@
         <v>40</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>40</v>
@@ -3085,16 +3085,16 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>40</v>
@@ -3106,7 +3106,7 @@
         <v>40</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T3" s="7" t="s">
         <v>40</v>
@@ -3114,16 +3114,16 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>40</v>
@@ -3135,7 +3135,7 @@
         <v>41</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>40</v>
@@ -3143,16 +3143,16 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>40</v>
@@ -3164,7 +3164,7 @@
         <v>44</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>40</v>
@@ -3172,16 +3172,16 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>40</v>
@@ -3193,7 +3193,7 @@
         <v>42</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>40</v>
@@ -3201,16 +3201,16 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3222,7 +3222,7 @@
         <v>44</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T7" s="7" t="s">
         <v>40</v>
@@ -3230,16 +3230,16 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>40</v>
@@ -3251,7 +3251,7 @@
         <v>40</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T8" s="7" t="s">
         <v>40</v>
@@ -3259,16 +3259,16 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>40</v>
@@ -3280,7 +3280,7 @@
         <v>41</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T9" s="7" t="s">
         <v>40</v>
@@ -3288,16 +3288,16 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>40</v>
@@ -3309,7 +3309,7 @@
         <v>118</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T10" s="7" t="s">
         <v>40</v>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3335,10 +3335,10 @@
         <v>42</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T11" s="7" t="s">
         <v>40</v>
@@ -3346,16 +3346,16 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>40</v>
@@ -3367,7 +3367,7 @@
         <v>41</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T12" s="7" t="s">
         <v>40</v>
@@ -3375,16 +3375,16 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>40</v>
@@ -3396,7 +3396,7 @@
         <v>40</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T13" s="7" t="s">
         <v>40</v>
@@ -3404,16 +3404,16 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>40</v>
@@ -3425,7 +3425,7 @@
         <v>40</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T14" s="7" t="s">
         <v>40</v>
@@ -3433,16 +3433,16 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3454,7 +3454,7 @@
         <v>40</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T15" s="7" t="s">
         <v>40</v>
@@ -3462,16 +3462,16 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>40</v>
@@ -3483,7 +3483,7 @@
         <v>101</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T16" s="7" t="s">
         <v>40</v>
@@ -3517,136 +3517,136 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/modules/cms/src/main/java/com/jeesite/modules/cms/db/InitCmsData.xlsx
+++ b/modules/cms/src/main/java/com/jeesite/modules/cms/db/InitCmsData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4400FFC-1621-4264-995D-A6C1030E84FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC2C17D-2DB9-4BF6-B1EE-631290858CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="3672" windowWidth="22836" windowHeight="10836" tabRatio="740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="19" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="225">
   <si>
     <t>moduleCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,24 +553,15 @@
     <t>target</t>
   </si>
   <si>
-    <t>A1000</t>
-  </si>
-  <si>
     <t>政务公开</t>
   </si>
   <si>
     <t>viewArticle</t>
   </si>
   <si>
-    <t>A1001</t>
-  </si>
-  <si>
     <t>在线咨询</t>
   </si>
   <si>
-    <t>A1002</t>
-  </si>
-  <si>
     <t>党政建设</t>
   </si>
   <si>
@@ -736,12 +727,6 @@
     <t>&lt;!--HTML--&gt;&lt;p&gt;文章内容内容内容内容&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;!--HTML--&gt;&lt;p&gt;&lt;span style="color: rgb(85, 85, 85); font-family: &amp;quot;Helvetica Neue&amp;quot;, Helvetica, Arial, sans-serif; font-size: 14px; background-color: rgb(255, 255, 255);"&gt;文章内容内容内容内容&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;!--HTML--&gt;&lt;p&gt;&lt;span style="color: rgb(85, 85, 85); font-family: &amp;quot;Helvetica Neue&amp;quot;, Helvetica, Arial, sans-serif; font-size: 14px; background-color: rgb(255, 255, 255);"&gt;文章内容内容内容内容&lt;/span&gt;&lt;span style="color: rgb(85, 85, 85); font-family: &amp;quot;Helvetica Neue&amp;quot;, Helvetica, Arial, sans-serif; font-size: 14px; background-color: rgb(255, 255, 255);"&gt;文章内容内容内容内容&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;!--HTML--&gt;&lt;p&gt;文章内容内容内容内容文章内容内容内容内容&lt;/p&gt;</t>
   </si>
   <si>
@@ -752,12 +737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;!--HTML--&gt;&lt;p&gt;&lt;span style="color: rgb(85, 85, 85); font-size: 14px; background-color: rgb(255, 255, 255);"&gt;文章内容内容内容内容&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;!--HTML--&gt;&lt;p&gt;&lt;span style="color: rgb(85, 85, 85); font-size: 14px; background-color: rgb(255, 255, 255);"&gt;文章内容内容内容内容&lt;/span&gt;&lt;span style="color: rgb(85, 85, 85); font-size: 14px; background-color: rgb(255, 255, 255);"&gt;文章内容内容内容内容&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>/cms/index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -809,11 +788,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;!--HTML--&gt;&lt;p&gt;Copyright © 2020 演示站 - Powered By JeeSite 5.1&lt;/p&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JeeSite 快速开发平台，不仅仅是一个后台开发框架，它是一个企业级快速开发解决方案，后端基于经典组合 Spring Boot、Shiro、MyBatis，前端采用 Beetl、Bootstrap、AdminLTE 经典开发模式，或者分离版 Vue3、Vite、Ant Design Vue、TypeScript、Vben Admin 最先进技术栈。提供在线代码生成功能，支持 Spring Cloud 架构，分布式，微服务，微内核，信息化领域的专家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!--HTML--&gt;&lt;p&gt;Copyright © 2020 演示站 - Powered By JeeSite 5.3&lt;/p&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!--HTML--&gt;&lt;p&gt;&lt;span&gt;文章内容内容内容内容&lt;/span&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!--HTML--&gt;&lt;p&gt;&lt;span&gt;文章内容内容内容内容&lt;/span&gt;&lt;span&gt;文章内容内容内容内容&lt;/span&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1318,7 +1317,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -1372,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -1390,10 +1389,10 @@
         <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>17</v>
@@ -1466,13 +1465,13 @@
         <v>23</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>55</v>
@@ -1507,10 +1506,10 @@
         <v>23</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>59</v>
@@ -1551,7 +1550,7 @@
         <v>50</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>57</v>
@@ -1589,10 +1588,10 @@
         <v>23</v>
       </c>
       <c r="I6" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>58</v>
@@ -1772,7 +1771,7 @@
         <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>35</v>
@@ -2613,10 +2612,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F107C8B-AEA7-49A0-8913-A9D6307CC5B0}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2636,13 +2635,13 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>129</v>
@@ -2666,7 +2665,7 @@
         <v>134</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>135</v>
@@ -2689,13 +2688,13 @@
         <v>145</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>139</v>
@@ -2747,7 +2746,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C12" sqref="C12"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2776,7 +2775,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -2785,13 +2784,13 @@
         <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>146</v>
@@ -2809,28 +2808,28 @@
         <v>36</v>
       </c>
       <c r="L1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="T1" s="13" t="s">
         <v>135</v>
@@ -2838,7 +2837,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>40</v>
@@ -2847,7 +2846,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>136</v>
@@ -2876,7 +2875,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>40</v>
@@ -2885,7 +2884,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>136</v>
@@ -2914,7 +2913,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>40</v>
@@ -2923,7 +2922,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>136</v>
@@ -2964,18 +2963,18 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.77734375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="7" customWidth="1"/>
     <col min="6" max="8" width="9" style="7"/>
-    <col min="9" max="9" width="16.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="7" customWidth="1"/>
     <col min="10" max="10" width="9" style="7"/>
     <col min="11" max="11" width="15.88671875" style="7" customWidth="1"/>
     <col min="12" max="12" width="9" style="7"/>
@@ -2991,13 +2990,13 @@
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>129</v>
@@ -3006,7 +3005,7 @@
         <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>146</v>
@@ -3018,34 +3017,34 @@
         <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>135</v>
@@ -3053,22 +3052,22 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>42</v>
@@ -3077,7 +3076,7 @@
         <v>40</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>40</v>
@@ -3085,16 +3084,16 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>40</v>
@@ -3106,7 +3105,7 @@
         <v>40</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T3" s="7" t="s">
         <v>40</v>
@@ -3114,16 +3113,16 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>40</v>
@@ -3135,7 +3134,7 @@
         <v>41</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>40</v>
@@ -3143,16 +3142,16 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>40</v>
@@ -3164,7 +3163,7 @@
         <v>44</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>40</v>
@@ -3172,16 +3171,16 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>40</v>
@@ -3193,7 +3192,7 @@
         <v>42</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>40</v>
@@ -3201,16 +3200,16 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3222,7 +3221,7 @@
         <v>44</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T7" s="7" t="s">
         <v>40</v>
@@ -3230,16 +3229,16 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>40</v>
@@ -3251,7 +3250,7 @@
         <v>40</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T8" s="7" t="s">
         <v>40</v>
@@ -3259,16 +3258,16 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>40</v>
@@ -3280,7 +3279,7 @@
         <v>41</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T9" s="7" t="s">
         <v>40</v>
@@ -3288,16 +3287,16 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>40</v>
@@ -3309,7 +3308,7 @@
         <v>118</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T10" s="7" t="s">
         <v>40</v>
@@ -3317,16 +3316,16 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3335,10 +3334,10 @@
         <v>42</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T11" s="7" t="s">
         <v>40</v>
@@ -3346,16 +3345,16 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>40</v>
@@ -3367,7 +3366,7 @@
         <v>41</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T12" s="7" t="s">
         <v>40</v>
@@ -3375,16 +3374,16 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>40</v>
@@ -3396,7 +3395,7 @@
         <v>40</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T13" s="7" t="s">
         <v>40</v>
@@ -3404,16 +3403,16 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>40</v>
@@ -3425,7 +3424,7 @@
         <v>40</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T14" s="7" t="s">
         <v>40</v>
@@ -3433,16 +3432,16 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3454,7 +3453,7 @@
         <v>40</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T15" s="7" t="s">
         <v>40</v>
@@ -3462,16 +3461,16 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>40</v>
@@ -3483,7 +3482,7 @@
         <v>101</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T16" s="7" t="s">
         <v>40</v>
@@ -3500,16 +3499,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AAE541-147D-47EF-A9FD-5A75D79EC7AF}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" style="7" customWidth="1"/>
-    <col min="2" max="2" width="84.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="86.44140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="11.109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" style="7" customWidth="1"/>
     <col min="5" max="16384" width="9" style="7"/>
@@ -3517,136 +3516,136 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/modules/cms/src/main/java/com/jeesite/modules/cms/db/InitCmsData.xlsx
+++ b/modules/cms/src/main/java/com/jeesite/modules/cms/db/InitCmsData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15720" tabRatio="740" activeTab="4"/>
+    <workbookView windowHeight="16020" tabRatio="740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="19" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="210">
   <si>
     <t>moduleCode</t>
   </si>
@@ -195,7 +195,7 @@
     <t>模版管理</t>
   </si>
   <si>
-    <t>920</t>
+    <t>120</t>
   </si>
   <si>
     <t>/cms/template/list</t>
@@ -328,9 +328,6 @@
   </si>
   <si>
     <t>picture</t>
-  </si>
-  <si>
-    <t>120</t>
   </si>
   <si>
     <t>视频</t>
@@ -1787,10 +1784,10 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
@@ -2373,7 +2370,7 @@
         <v>87</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>29</v>
@@ -2393,13 +2390,13 @@
         <v>59</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>29</v>
@@ -2419,13 +2416,13 @@
         <v>59</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>29</v>
@@ -2445,13 +2442,13 @@
         <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>29</v>
@@ -2471,13 +2468,13 @@
         <v>59</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>29</v>
@@ -2497,7 +2494,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>29</v>
@@ -2523,10 +2520,10 @@
         <v>61</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>40</v>
@@ -2549,7 +2546,7 @@
         <v>63</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>29</v>
@@ -2575,10 +2572,10 @@
         <v>63</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>40</v>
@@ -2601,10 +2598,10 @@
         <v>63</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>45</v>
@@ -2627,7 +2624,7 @@
         <v>65</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>29</v>
@@ -2653,10 +2650,10 @@
         <v>65</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>40</v>
@@ -2679,10 +2676,10 @@
         <v>65</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>45</v>
@@ -2705,7 +2702,7 @@
         <v>67</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>29</v>
@@ -2731,10 +2728,10 @@
         <v>67</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>40</v>
@@ -2757,10 +2754,10 @@
         <v>67</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>45</v>
@@ -2783,13 +2780,13 @@
         <v>67</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>29</v>
@@ -2835,10 +2832,10 @@
         <v>69</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>40</v>
@@ -2861,7 +2858,7 @@
         <v>71</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>29</v>
@@ -2887,10 +2884,10 @@
         <v>71</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>40</v>
@@ -2913,10 +2910,10 @@
         <v>71</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>45</v>
@@ -2939,13 +2936,13 @@
         <v>71</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>29</v>
@@ -2965,13 +2962,13 @@
         <v>71</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="F29" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>29</v>
@@ -2991,13 +2988,13 @@
         <v>71</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="F30" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>29</v>
@@ -3017,13 +3014,13 @@
         <v>71</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="F31" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>29</v>
@@ -3043,13 +3040,13 @@
         <v>71</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>29</v>
@@ -3070,7 +3067,7 @@
   <sheetPr/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
@@ -3093,69 +3090,69 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" ht="135" spans="1:12">
       <c r="A2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="G2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>27</v>
@@ -3163,28 +3160,28 @@
     </row>
     <row r="3" ht="17" spans="1:12">
       <c r="A3" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>27</v>
@@ -3234,7 +3231,7 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="17" spans="1:20">
       <c r="A1" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -3243,60 +3240,60 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="T1" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" ht="17" spans="1:20">
       <c r="A2" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>27</v>
@@ -3305,10 +3302,10 @@
         <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>83</v>
@@ -3334,7 +3331,7 @@
     </row>
     <row r="3" ht="17" spans="1:20">
       <c r="A3" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>27</v>
@@ -3343,10 +3340,10 @@
         <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>83</v>
@@ -3372,7 +3369,7 @@
     </row>
     <row r="4" ht="17" spans="1:20">
       <c r="A4" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>27</v>
@@ -3381,10 +3378,10 @@
         <v>45</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>83</v>
@@ -3450,28 +3447,28 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -3480,63 +3477,63 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>27</v>
@@ -3544,28 +3541,28 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>27</v>
@@ -3573,28 +3570,28 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>27</v>
@@ -3602,28 +3599,28 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>27</v>
@@ -3631,28 +3628,28 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>27</v>
@@ -3660,28 +3657,28 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>27</v>
@@ -3689,28 +3686,28 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>27</v>
@@ -3718,28 +3715,28 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>27</v>
@@ -3747,28 +3744,28 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>27</v>
@@ -3776,28 +3773,28 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="R11" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>27</v>
@@ -3805,28 +3802,28 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>27</v>
@@ -3834,28 +3831,28 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>27</v>
@@ -3863,28 +3860,28 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>27</v>
@@ -3892,28 +3889,28 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>27</v>
@@ -3921,28 +3918,28 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>27</v>
@@ -3977,136 +3974,136 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/modules/cms/src/main/java/com/jeesite/modules/cms/db/InitCmsData.xlsx
+++ b/modules/cms/src/main/java/com/jeesite/modules/cms/db/InitCmsData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16020" tabRatio="740" activeTab="1"/>
+    <workbookView windowWidth="25900" windowHeight="13900" tabRatio="740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="19" r:id="rId1"/>
@@ -16,7 +16,20 @@
     <sheet name="Article" sheetId="27" r:id="rId7"/>
     <sheet name="ArticleData" sheetId="28" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="211">
   <si>
     <t>moduleCode</t>
   </si>
@@ -126,7 +139,7 @@
     <t>__id__cms</t>
   </si>
   <si>
-    <t>0</t>
+    <t>:扩展功能</t>
   </si>
   <si>
     <t>9100</t>
@@ -301,6 +314,9 @@
       </rPr>
       <t>tatus</t>
     </r>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>基础主题</t>
@@ -1787,7 +1803,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
@@ -2254,13 +2270,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>25</v>
@@ -2272,7 +2288,7 @@
         <v>29</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:11">
@@ -2280,16 +2296,16 @@
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>34</v>
@@ -2298,7 +2314,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" ht="17" spans="1:11">
@@ -2306,16 +2322,16 @@
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>40</v>
@@ -2324,7 +2340,7 @@
         <v>29</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:11">
@@ -2332,16 +2348,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>45</v>
@@ -2350,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" ht="17" spans="1:11">
@@ -2358,16 +2374,16 @@
         <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>50</v>
@@ -2376,7 +2392,7 @@
         <v>29</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" ht="17" spans="1:11">
@@ -2384,25 +2400,25 @@
         <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" ht="17" spans="1:11">
@@ -2410,25 +2426,25 @@
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" ht="17" spans="1:11">
@@ -2436,25 +2452,25 @@
         <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" ht="17" spans="1:11">
@@ -2462,25 +2478,25 @@
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" ht="17" spans="1:11">
@@ -2488,13 +2504,13 @@
         <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>29</v>
@@ -2506,7 +2522,7 @@
         <v>29</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" ht="17" spans="1:11">
@@ -2514,16 +2530,16 @@
         <v>32</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>40</v>
@@ -2532,7 +2548,7 @@
         <v>29</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" ht="17" spans="1:11">
@@ -2540,13 +2556,13 @@
         <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>29</v>
@@ -2558,7 +2574,7 @@
         <v>29</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" ht="17" spans="1:11">
@@ -2566,16 +2582,16 @@
         <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>40</v>
@@ -2584,7 +2600,7 @@
         <v>29</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" ht="17" spans="1:11">
@@ -2592,16 +2608,16 @@
         <v>32</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>45</v>
@@ -2610,7 +2626,7 @@
         <v>29</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="17" spans="1:11">
@@ -2618,13 +2634,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>29</v>
@@ -2636,7 +2652,7 @@
         <v>29</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" ht="17" spans="1:11">
@@ -2644,16 +2660,16 @@
         <v>32</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>40</v>
@@ -2662,7 +2678,7 @@
         <v>29</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" ht="17" spans="1:11">
@@ -2670,16 +2686,16 @@
         <v>32</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>45</v>
@@ -2688,7 +2704,7 @@
         <v>29</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" ht="17" spans="1:11">
@@ -2696,13 +2712,13 @@
         <v>32</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>29</v>
@@ -2714,7 +2730,7 @@
         <v>29</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" ht="17" spans="1:11">
@@ -2722,16 +2738,16 @@
         <v>32</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>40</v>
@@ -2740,7 +2756,7 @@
         <v>29</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" ht="17" spans="1:11">
@@ -2748,16 +2764,16 @@
         <v>32</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>45</v>
@@ -2766,7 +2782,7 @@
         <v>29</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:11">
@@ -2774,16 +2790,16 @@
         <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>50</v>
@@ -2792,7 +2808,7 @@
         <v>29</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" ht="17" spans="1:11">
@@ -2800,13 +2816,13 @@
         <v>32</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>29</v>
@@ -2818,7 +2834,7 @@
         <v>29</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" ht="17" spans="1:11">
@@ -2826,16 +2842,16 @@
         <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>40</v>
@@ -2844,7 +2860,7 @@
         <v>29</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:11">
@@ -2852,13 +2868,13 @@
         <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>29</v>
@@ -2870,7 +2886,7 @@
         <v>29</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="17" spans="1:11">
@@ -2878,16 +2894,16 @@
         <v>32</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>40</v>
@@ -2896,7 +2912,7 @@
         <v>29</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" ht="17" spans="1:11">
@@ -2904,16 +2920,16 @@
         <v>32</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>45</v>
@@ -2922,7 +2938,7 @@
         <v>29</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" ht="17" spans="1:11">
@@ -2930,16 +2946,16 @@
         <v>32</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>50</v>
@@ -2948,7 +2964,7 @@
         <v>29</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" ht="17" spans="1:11">
@@ -2956,25 +2972,25 @@
         <v>32</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" ht="17" spans="1:11">
@@ -2982,25 +2998,25 @@
         <v>32</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" ht="17" spans="1:11">
@@ -3008,25 +3024,25 @@
         <v>32</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" ht="17" spans="1:11">
@@ -3034,25 +3050,25 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3090,101 +3106,101 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" ht="135" spans="1:12">
       <c r="A2" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:12">
       <c r="A3" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3231,7 +3247,7 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="17" spans="1:20">
       <c r="A1" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -3240,75 +3256,75 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" ht="17" spans="1:20">
       <c r="A2" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>29</v>
@@ -3326,27 +3342,27 @@
         <v>29</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:20">
       <c r="A3" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>29</v>
@@ -3364,27 +3380,27 @@
         <v>29</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" ht="17" spans="1:20">
       <c r="A4" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>29</v>
@@ -3402,7 +3418,7 @@
         <v>29</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3447,28 +3463,28 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -3477,472 +3493,472 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="T3" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3974,136 +3990,136 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/modules/cms/src/main/java/com/jeesite/modules/cms/db/InitCmsData.xlsx
+++ b/modules/cms/src/main/java/com/jeesite/modules/cms/db/InitCmsData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25900" windowHeight="13900" tabRatio="740" activeTab="1"/>
+    <workbookView windowWidth="25900" windowHeight="13260" tabRatio="740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="19" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="217">
   <si>
     <t>moduleCode</t>
   </si>
@@ -218,6 +218,27 @@
   </si>
   <si>
     <t>icon-graduation</t>
+  </si>
+  <si>
+    <t>__id__cms_ai</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>AI助手</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>https://vue.jeesite.com/cms/chat/index</t>
+  </si>
+  <si>
+    <t>_blank</t>
+  </si>
+  <si>
+    <t>icon-bubble</t>
   </si>
   <si>
     <t>dictType</t>
@@ -314,9 +335,6 @@
       </rPr>
       <t>tatus</t>
     </r>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>基础主题</t>
@@ -1350,7 +1368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1390,6 +1408,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1798,15 +1819,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9.10714285714286" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.2232142857143" style="4" customWidth="1"/>
@@ -2071,7 +2092,49 @@
         <v>29</v>
       </c>
     </row>
+    <row r="7" ht="17" spans="1:16">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="N7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I7" r:id="rId3" display="https://vue.jeesite.com/cms/chat/index"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2100,21 +2163,21 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="17" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>29</v>
@@ -2122,10 +2185,10 @@
     </row>
     <row r="3" ht="17" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>29</v>
@@ -2133,10 +2196,10 @@
     </row>
     <row r="4" ht="17" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>29</v>
@@ -2144,10 +2207,10 @@
     </row>
     <row r="5" ht="17" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>29</v>
@@ -2155,10 +2218,10 @@
     </row>
     <row r="6" ht="17" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>29</v>
@@ -2166,10 +2229,10 @@
     </row>
     <row r="7" ht="17" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>29</v>
@@ -2177,10 +2240,10 @@
     </row>
     <row r="8" ht="17" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>29</v>
@@ -2188,10 +2251,10 @@
     </row>
     <row r="9" ht="17" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>29</v>
@@ -2232,37 +2295,37 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" ht="17" spans="1:11">
@@ -2270,13 +2333,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>25</v>
@@ -2288,7 +2351,7 @@
         <v>29</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:11">
@@ -2296,16 +2359,16 @@
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>34</v>
@@ -2314,7 +2377,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="17" spans="1:11">
@@ -2322,16 +2385,16 @@
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>40</v>
@@ -2340,7 +2403,7 @@
         <v>29</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:11">
@@ -2348,16 +2411,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>45</v>
@@ -2366,7 +2429,7 @@
         <v>29</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" ht="17" spans="1:11">
@@ -2374,16 +2437,16 @@
         <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>50</v>
@@ -2392,7 +2455,7 @@
         <v>29</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" ht="17" spans="1:11">
@@ -2400,25 +2463,25 @@
         <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" ht="17" spans="1:11">
@@ -2426,25 +2489,25 @@
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" ht="17" spans="1:11">
@@ -2452,25 +2515,25 @@
         <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" ht="17" spans="1:11">
@@ -2478,25 +2541,25 @@
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" ht="17" spans="1:11">
@@ -2504,13 +2567,13 @@
         <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>29</v>
@@ -2522,7 +2585,7 @@
         <v>29</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" ht="17" spans="1:11">
@@ -2530,16 +2593,16 @@
         <v>32</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>40</v>
@@ -2548,7 +2611,7 @@
         <v>29</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" ht="17" spans="1:11">
@@ -2556,13 +2619,13 @@
         <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>29</v>
@@ -2574,7 +2637,7 @@
         <v>29</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" ht="17" spans="1:11">
@@ -2582,16 +2645,16 @@
         <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>40</v>
@@ -2600,7 +2663,7 @@
         <v>29</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" ht="17" spans="1:11">
@@ -2608,16 +2671,16 @@
         <v>32</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>45</v>
@@ -2626,7 +2689,7 @@
         <v>29</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" ht="17" spans="1:11">
@@ -2634,13 +2697,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>29</v>
@@ -2652,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="17" spans="1:11">
@@ -2660,16 +2723,16 @@
         <v>32</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>40</v>
@@ -2678,7 +2741,7 @@
         <v>29</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="17" spans="1:11">
@@ -2686,16 +2749,16 @@
         <v>32</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>45</v>
@@ -2704,7 +2767,7 @@
         <v>29</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="17" spans="1:11">
@@ -2712,13 +2775,13 @@
         <v>32</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>29</v>
@@ -2730,7 +2793,7 @@
         <v>29</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="17" spans="1:11">
@@ -2738,16 +2801,16 @@
         <v>32</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>40</v>
@@ -2756,7 +2819,7 @@
         <v>29</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="17" spans="1:11">
@@ -2764,16 +2827,16 @@
         <v>32</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>45</v>
@@ -2782,7 +2845,7 @@
         <v>29</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:11">
@@ -2790,16 +2853,16 @@
         <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>50</v>
@@ -2808,7 +2871,7 @@
         <v>29</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" ht="17" spans="1:11">
@@ -2816,13 +2879,13 @@
         <v>32</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>29</v>
@@ -2834,7 +2897,7 @@
         <v>29</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="17" spans="1:11">
@@ -2842,16 +2905,16 @@
         <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>40</v>
@@ -2860,7 +2923,7 @@
         <v>29</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:11">
@@ -2868,13 +2931,13 @@
         <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>29</v>
@@ -2886,7 +2949,7 @@
         <v>29</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="17" spans="1:11">
@@ -2894,16 +2957,16 @@
         <v>32</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>40</v>
@@ -2912,7 +2975,7 @@
         <v>29</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" ht="17" spans="1:11">
@@ -2920,16 +2983,16 @@
         <v>32</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>45</v>
@@ -2938,7 +3001,7 @@
         <v>29</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" ht="17" spans="1:11">
@@ -2946,16 +3009,16 @@
         <v>32</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>50</v>
@@ -2964,7 +3027,7 @@
         <v>29</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="17" spans="1:11">
@@ -2972,25 +3035,25 @@
         <v>32</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="17" spans="1:11">
@@ -2998,25 +3061,25 @@
         <v>32</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" ht="17" spans="1:11">
@@ -3024,25 +3087,25 @@
         <v>32</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="17" spans="1:11">
@@ -3050,25 +3113,25 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3106,101 +3169,101 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" ht="135" spans="1:12">
       <c r="A2" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:12">
       <c r="A3" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3247,7 +3310,7 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="17" spans="1:20">
       <c r="A1" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -3256,75 +3319,75 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" ht="17" spans="1:20">
       <c r="A2" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>29</v>
@@ -3342,27 +3405,27 @@
         <v>29</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:20">
       <c r="A3" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>29</v>
@@ -3380,27 +3443,27 @@
         <v>29</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="17" spans="1:20">
       <c r="A4" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>29</v>
@@ -3418,7 +3481,7 @@
         <v>29</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3526,28 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -3493,472 +3556,472 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="T8" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3990,136 +4053,136 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
